--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AE6E02-E5B8-4DBD-87B6-B77B61202716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B3E932-6870-4520-8174-CFBBC104F0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6AB1351D-9D29-4531-B35F-FF7B1944C539}"/>
   </bookViews>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="121">
   <si>
     <t>COLESTEROL INICIO</t>
   </si>
@@ -414,28 +414,79 @@
     <t>Apofisis Xifoides cm (SESION 10)</t>
   </si>
   <si>
-    <t>ENERGIA (KJ) (SESION 1)</t>
-  </si>
-  <si>
-    <t>TEMPERATURA (SESION 1)</t>
-  </si>
-  <si>
-    <t>ENERGIA (KJ) (SESION 5)</t>
-  </si>
-  <si>
-    <t>TEMPERATURA  (SESION 5)</t>
-  </si>
-  <si>
-    <t>TEMPERATURA (SESION 5)</t>
-  </si>
-  <si>
-    <t>ENERGIA (KJ) (SESION 10)</t>
-  </si>
-  <si>
-    <t>TEMPERATURA (SESION 10)</t>
-  </si>
-  <si>
     <t>DIFERENCIA gramos</t>
+  </si>
+  <si>
+    <t>ENERGIA (KJ) (SESION 1.0)</t>
+  </si>
+  <si>
+    <t>TEMPERATURA (SESION 1.0)</t>
+  </si>
+  <si>
+    <t>ENERGIA (KJ) (SESION 1.1)</t>
+  </si>
+  <si>
+    <t>TEMPERATURA (SESION 1.1)</t>
+  </si>
+  <si>
+    <t>TEMPERATURA (SESION 1.2)</t>
+  </si>
+  <si>
+    <t>ENERGIA (KJ) (SESION 1.2)</t>
+  </si>
+  <si>
+    <t>TEMPERATURA (SESION 1.3)</t>
+  </si>
+  <si>
+    <t>ENERGIA (KJ) (SESION 1.3)</t>
+  </si>
+  <si>
+    <t>ENERGIA (KJ) (SESION 5.0)</t>
+  </si>
+  <si>
+    <t>TEMPERATURA  (SESION 5.0)</t>
+  </si>
+  <si>
+    <t>ENERGIA (KJ) (SESION 5.1)</t>
+  </si>
+  <si>
+    <t>TEMPERATURA (SESION 5.1)</t>
+  </si>
+  <si>
+    <t>ENERGIA (KJ) (SESION 5.2)</t>
+  </si>
+  <si>
+    <t>TEMPERATURA (SESION 5.2)</t>
+  </si>
+  <si>
+    <t>ENERGIA (KJ) (SESION 5.3)</t>
+  </si>
+  <si>
+    <t>TEMPERATURA (SESION 5.3)</t>
+  </si>
+  <si>
+    <t>ENERGIA (KJ) (SESION 10.0)</t>
+  </si>
+  <si>
+    <t>TEMPERATURA (SESION 10.0)</t>
+  </si>
+  <si>
+    <t>ENERGIA (KJ) (SESION 10.1)</t>
+  </si>
+  <si>
+    <t>TEMPERATURA (SESION 10.1)</t>
+  </si>
+  <si>
+    <t>ENERGIA (KJ) (SESION 10.2)</t>
+  </si>
+  <si>
+    <t>TEMPERATURA (SESION 10.2)</t>
+  </si>
+  <si>
+    <t>ENERGIA (KJ) (SESION 10.3)</t>
+  </si>
+  <si>
+    <t>TEMPERATURA (SESION 10.3)</t>
   </si>
 </sst>
 </file>
@@ -1572,16 +1623,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2458C0-1A51-4A67-9505-3FC5A04BDA57}">
   <dimension ref="A1:CF21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BE1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="AW2" sqref="AW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:84" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -1703,76 +1758,76 @@
         <v>95</v>
       </c>
       <c r="AO1" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AP1" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AQ1" s="24" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AR1" s="24" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AS1" s="24" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AT1" s="24" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="AU1" s="24" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="AV1" s="24" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AW1" s="24" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AX1" s="24" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AY1" s="24" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="AZ1" s="24" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="BA1" s="24" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="BB1" s="24" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BC1" s="24" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="BD1" s="24" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="BE1" s="24" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="BF1" s="24" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="BG1" s="24" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="BH1" s="24" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="BI1" s="24" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="BJ1" s="24" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="BK1" s="24" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="BL1" s="24" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="BM1" s="2" t="s">
         <v>0</v>
@@ -1832,7 +1887,7 @@
         <v>12</v>
       </c>
       <c r="CF1" s="8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:84" x14ac:dyDescent="0.25">
